--- a/AttendanceSheet.xlsx
+++ b/AttendanceSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Emp_ID</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
 </sst>
 </file>
@@ -392,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,13 +417,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -437,270 +434,15 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>58</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>59</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>60</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>61</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>62</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>63</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>64</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>65</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>66</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>67</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>68</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>69</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>70</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>71</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>71</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AttendanceSheet.xlsx
+++ b/AttendanceSheet.xlsx
@@ -14,27 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Attendance_Id</t>
+  </si>
   <si>
     <t>Emp_ID</t>
   </si>
   <si>
-    <t>Gate_ID</t>
-  </si>
-  <si>
-    <t>AcessSchemeID</t>
-  </si>
-  <si>
-    <t>AllowedJobs</t>
-  </si>
-  <si>
-    <t>Cat</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>Emp_FirstName</t>
+  </si>
+  <si>
+    <t>Emp_LastName</t>
+  </si>
+  <si>
+    <t>Emp_Dep_ID</t>
+  </si>
+  <si>
+    <t>Emp_Job_ID</t>
+  </si>
+  <si>
+    <t>Spoofing</t>
+  </si>
+  <si>
+    <t>EnteringTime</t>
+  </si>
+  <si>
+    <t>EnteringDate</t>
+  </si>
+  <si>
+    <t>LeavingTime</t>
+  </si>
+  <si>
+    <t>LeavingDate</t>
   </si>
 </sst>
 </file>
@@ -392,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="B1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="2:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,294 +426,23 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>56</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>57</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>58</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>59</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>60</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>61</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>62</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>63</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>64</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>65</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B12">
-        <v>66</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>67</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>68</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>69</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>70</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>71</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>71</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/AttendanceSheet.xlsx
+++ b/AttendanceSheet.xlsx
@@ -14,24 +14,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
   <si>
     <t>Emp_ID</t>
   </si>
   <si>
-    <t>Gate_ID</t>
-  </si>
-  <si>
-    <t>AcessSchemeID</t>
-  </si>
-  <si>
-    <t>AllowedJobs</t>
-  </si>
-  <si>
-    <t>Cat</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>Emp_FirstName</t>
+  </si>
+  <si>
+    <t>Emp_LastName</t>
+  </si>
+  <si>
+    <t>Emp_Dep_ID</t>
+  </si>
+  <si>
+    <t>Emp_Job_ID</t>
+  </si>
+  <si>
+    <t>IsSpoofing</t>
+  </si>
+  <si>
+    <t>EnteringTime</t>
+  </si>
+  <si>
+    <t>EnteringDate</t>
+  </si>
+  <si>
+    <t>LeavingTime</t>
+  </si>
+  <si>
+    <t>LeavingDate</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Roaa</t>
+  </si>
+  <si>
+    <t>ELdarandaly</t>
+  </si>
+  <si>
+    <t>Mostafa</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>08:25:41</t>
+  </si>
+  <si>
+    <t>08:28:15</t>
+  </si>
+  <si>
+    <t>08:48:54</t>
+  </si>
+  <si>
+    <t>08:54:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/05/2022 </t>
+  </si>
+  <si>
+    <t>08:29:07</t>
+  </si>
+  <si>
+    <t>08:30:04</t>
+  </si>
+  <si>
+    <t>08:48:05</t>
+  </si>
+  <si>
+    <t>08:55:19</t>
   </si>
 </sst>
 </file>
@@ -389,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,39 +474,252 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
